--- a/reports/Angola_import_top_5_partners_2003-2023.xlsx
+++ b/reports/Angola_import_top_5_partners_2003-2023.xlsx
@@ -1339,6 +1339,9 @@
       <c r="C12" t="s">
         <v>19</v>
       </c>
+      <c r="D12">
+        <v>0</v>
+      </c>
       <c r="E12">
         <v>0.04243733928373884</v>
       </c>
@@ -1377,6 +1380,9 @@
       </c>
       <c r="Q12">
         <v>0.1183849678804466</v>
+      </c>
+      <c r="R12">
+        <v>0</v>
       </c>
       <c r="S12">
         <v>608878658.34</v>
@@ -1523,6 +1529,9 @@
       <c r="C14" t="s">
         <v>19</v>
       </c>
+      <c r="D14">
+        <v>0</v>
+      </c>
       <c r="E14">
         <v>0.06541387967579268</v>
       </c>
@@ -1561,6 +1570,9 @@
       </c>
       <c r="Q14">
         <v>0.04926517173091883</v>
+      </c>
+      <c r="R14">
+        <v>0</v>
       </c>
       <c r="S14">
         <v>1047074122.6</v>
@@ -1612,6 +1624,9 @@
       <c r="C15" t="s">
         <v>19</v>
       </c>
+      <c r="D15">
+        <v>0</v>
+      </c>
       <c r="E15">
         <v>0.06554138553829658</v>
       </c>
@@ -1650,6 +1665,9 @@
       </c>
       <c r="Q15">
         <v>0.05014422286396478</v>
+      </c>
+      <c r="R15">
+        <v>0</v>
       </c>
       <c r="S15">
         <v>915065257.892</v>
@@ -1701,6 +1719,9 @@
       <c r="C16" t="s">
         <v>19</v>
       </c>
+      <c r="D16">
+        <v>0</v>
+      </c>
       <c r="E16">
         <v>0.04307332892710129</v>
       </c>
@@ -1739,6 +1760,9 @@
       </c>
       <c r="Q16">
         <v>0.06577262109826555</v>
+      </c>
+      <c r="R16">
+        <v>0</v>
       </c>
       <c r="S16">
         <v>402215545.545</v>
@@ -1790,6 +1814,9 @@
       <c r="C17" t="s">
         <v>19</v>
       </c>
+      <c r="D17">
+        <v>0</v>
+      </c>
       <c r="E17">
         <v>0.03418891749259518</v>
       </c>
@@ -1828,6 +1855,9 @@
       </c>
       <c r="Q17">
         <v>0.04596268589368356</v>
+      </c>
+      <c r="R17">
+        <v>0</v>
       </c>
       <c r="S17">
         <v>389033227.835</v>
